--- a/evaluate_book.xlsx
+++ b/evaluate_book.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diastic\HCMUS\parallel_programing\cuda-seam-carving\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectLapTrinh\cuda-seam-carving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1D78093-B1F6-4EFB-9AC5-1D05075849AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65739134-91C3-45A9-B4AB-46A8576B7F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2714BD4C-65EE-47DD-BCD7-00EC186BAA02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2714BD4C-65EE-47DD-BCD7-00EC186BAA02}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planning" sheetId="2" r:id="rId1"/>
+    <sheet name="Evaluation" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,33 +37,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
-    <t>hd</t>
+    <t>Small image</t>
   </si>
   <si>
-    <t>sequence</t>
+    <t>Medium image</t>
   </si>
   <si>
-    <t>v1_16</t>
+    <t>Large image</t>
   </si>
   <si>
-    <t>v1_32</t>
+    <t>Convert RGB to Grayscale</t>
   </si>
   <si>
-    <t>v2_16</t>
+    <t>Apply filters</t>
   </si>
   <si>
-    <t>v2_32</t>
+    <t>Calculate pixel importance</t>
+  </si>
+  <si>
+    <t>Construct least pixel-importance matrix</t>
+  </si>
+  <si>
+    <t>Find K least important seams</t>
+  </si>
+  <si>
+    <t>Sort K seams' positions</t>
+  </si>
+  <si>
+    <t>Reduce/Enlarge image</t>
+  </si>
+  <si>
+    <t>Total (with loops included)</t>
+  </si>
+  <si>
+    <t>Reduce Width</t>
+  </si>
+  <si>
+    <t>Increase Width</t>
+  </si>
+  <si>
+    <t>Sequential Implementation</t>
+  </si>
+  <si>
+    <t>Parallel Implementation V1</t>
+  </si>
+  <si>
+    <t>Parallel Implementation V2</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Research about seam carving</t>
+  </si>
+  <si>
+    <t>Whole team</t>
+  </si>
+  <si>
+    <t>Plan out the phases for sequential</t>
+  </si>
+  <si>
+    <t>Sequential Implementation: least important matrix, find k seams, traceback seams</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>Make main driver function</t>
+  </si>
+  <si>
+    <t>Kiệt</t>
+  </si>
+  <si>
+    <t>Sequential Implementation: grayscale convert, apply filters, pixel importance, apply seams, utils</t>
+  </si>
+  <si>
+    <t>Parallel Implementation: least important matrix, find k seams, traceback seams</t>
+  </si>
+  <si>
+    <t>Parallel mplementation: grayscale convert, apply filters, pixel importance, apply seams, utils</t>
+  </si>
+  <si>
+    <t>Evaluate/Test program and make report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -77,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -85,12 +176,174 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -173,11 +426,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
+              <c:f>Evaluation!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sequence</c:v>
+                  <c:v>Convert RGB to Grayscale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -196,35 +449,35 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$E$2</c:f>
+              <c:f>Evaluation!$C$3:$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>Small image</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>512</c:v>
+                  <c:v>Medium image</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>hd</c:v>
+                  <c:v>Large image</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$E$3</c:f>
+              <c:f>Evaluation!$C$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0.46843699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1.5833010000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>35.167900000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -241,11 +494,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$4</c:f>
+              <c:f>Evaluation!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>v1_16</c:v>
+                  <c:v>Apply filters</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -264,35 +517,35 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$E$2</c:f>
+              <c:f>Evaluation!$C$3:$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>Small image</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>512</c:v>
+                  <c:v>Medium image</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>hd</c:v>
+                  <c:v>Large image</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$E$4</c:f>
+              <c:f>Evaluation!$C$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>19.041367999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>65.981392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>1385.524658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -309,11 +562,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$5</c:f>
+              <c:f>Evaluation!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>v1_32</c:v>
+                  <c:v>Calculate pixel importance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -332,35 +585,35 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$E$2</c:f>
+              <c:f>Evaluation!$C$3:$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>Small image</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>512</c:v>
+                  <c:v>Medium image</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>hd</c:v>
+                  <c:v>Large image</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$E$5</c:f>
+              <c:f>Evaluation!$C$6:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0.98238400000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>3.297806</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>69.805153000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,11 +630,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$6</c:f>
+              <c:f>Evaluation!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>v2_16</c:v>
+                  <c:v>Construct least pixel-importance matrix</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -400,35 +653,35 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$E$2</c:f>
+              <c:f>Evaluation!$C$3:$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>Small image</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>512</c:v>
+                  <c:v>Medium image</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>hd</c:v>
+                  <c:v>Large image</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$E$6</c:f>
+              <c:f>Evaluation!$C$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.6080369999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.8480910000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>122.951584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,11 +698,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$7</c:f>
+              <c:f>Evaluation!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>v2_32</c:v>
+                  <c:v>Find K least important seams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -468,35 +721,35 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$E$2</c:f>
+              <c:f>Evaluation!$C$3:$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>Small image</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>512</c:v>
+                  <c:v>Medium image</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>hd</c:v>
+                  <c:v>Large image</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$E$7</c:f>
+              <c:f>Evaluation!$C$8:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>5.9301E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0.79166199999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>12.764084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -505,6 +758,144 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0475-4E48-BA75-84D39F0BE9CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Evaluation!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sort K seams' positions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Evaluation!$C$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Small image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium image</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluation!$C$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.5207999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41905399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9969139999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82D9-4A67-B006-D8E939816A5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Evaluation!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reduce/Enlarge image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Evaluation!$C$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Small image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium image</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluation!$C$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.24723200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89632900000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.174976000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-82D9-4A67-B006-D8E939816A5F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -703,7 +1094,757 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Evaluation!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Convert RGB to Grayscale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Evaluation!$C$15:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Small image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium image</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluation!$C$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.31159500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61633400000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3601449999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5F10-4CE7-B640-FD8A2F0A45EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Evaluation!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apply filters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Evaluation!$C$15:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Small image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium image</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluation!$C$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1758189999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9445490000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.958607000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-5F10-4CE7-B640-FD8A2F0A45EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Evaluation!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculate pixel importance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Evaluation!$C$15:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Small image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium image</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluation!$C$18:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.61726899999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8651059999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.233072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-5F10-4CE7-B640-FD8A2F0A45EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Evaluation!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Construct least pixel-importance matrix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Evaluation!$C$15:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Small image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium image</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluation!$C$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.7711999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1610329999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.494762000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-5F10-4CE7-B640-FD8A2F0A45EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Evaluation!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Find K least important seams</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Evaluation!$C$15:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Small image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium image</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluation!$C$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.102571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1099060000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.658575000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-5F10-4CE7-B640-FD8A2F0A45EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Evaluation!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sort K seams' positions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Evaluation!$C$15:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Small image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium image</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluation!$C$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.3509000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.402277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7985419999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-5F10-4CE7-B640-FD8A2F0A45EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Evaluation!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reduce/Enlarge image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Evaluation!$C$15:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Small image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium image</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Large image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluation!$C$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.46669100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89484300000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.997583000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-5F10-4CE7-B640-FD8A2F0A45EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="565817456"/>
+        <c:axId val="565828688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="565817456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565828688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="565828688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565817456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26552668416447944"/>
+          <c:y val="0.81680155630967355"/>
+          <c:w val="0.5717241907261591"/>
+          <c:h val="0.15542099366202083"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1259,20 +2400,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1292,6 +2949,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5807BBB1-383D-4739-06BB-DBBF1F9EC393}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1596,101 +3289,837 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D1DC1C-95C6-4BDF-871D-18C335966C08}">
-  <dimension ref="B2:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CF88B6-D753-40FA-B860-31E3290D78FE}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="85.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>256</v>
-      </c>
-      <c r="D2">
-        <v>512</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
+      <c r="B2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="16">
+        <v>44920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="16">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="B7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="16">
+        <v>44934</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="16"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="D7:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D1DC1C-95C6-4BDF-871D-18C335966C08}">
+  <dimension ref="B2:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="45.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.46843699999999999</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.5833010000000001</v>
+      </c>
+      <c r="E4" s="8">
+        <v>35.167900000000003</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.538856</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.0612620000000001</v>
+      </c>
+      <c r="I4" s="8">
+        <v>45.072529000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>19.041367999999999</v>
+      </c>
+      <c r="D5" s="9">
+        <v>65.981392</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1385.524658</v>
+      </c>
+      <c r="G5" s="9">
+        <v>19.364758999999999</v>
+      </c>
+      <c r="H5" s="9">
+        <v>81.049888999999993</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1736.3032229999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.98238400000000003</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3.297806</v>
+      </c>
+      <c r="E6" s="9">
+        <v>69.805153000000004</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.96620799999999996</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4.027291</v>
+      </c>
+      <c r="I6" s="9">
+        <v>86.725364999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.6080369999999999</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5.8480910000000002</v>
+      </c>
+      <c r="E7" s="9">
+        <v>122.951584</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1.630768</v>
+      </c>
+      <c r="H7" s="9">
+        <v>7.223109</v>
+      </c>
+      <c r="I7" s="9">
+        <v>149.97277800000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>5.9301E-2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.79166199999999998</v>
+      </c>
+      <c r="E8" s="9">
+        <v>12.764084</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.22292000000000001</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1.115159</v>
+      </c>
+      <c r="I8" s="9">
+        <v>15.69577</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7.5207999999999997E-2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.41905399999999998</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2.9969139999999999</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.21429599999999999</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.44025599999999998</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1.829207</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.24723200000000001</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.89632900000000004</v>
+      </c>
+      <c r="E10" s="9">
+        <v>19.174976000000001</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.38929599999999998</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1.454766</v>
+      </c>
+      <c r="I10" s="9">
+        <v>25.010462</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10">
+        <v>269.78363000000002</v>
+      </c>
+      <c r="D11" s="10">
+        <v>551.72351100000003</v>
+      </c>
+      <c r="E11" s="10">
+        <v>32967.707030999998</v>
+      </c>
+      <c r="G11" s="4">
+        <v>93.308402999999998</v>
+      </c>
+      <c r="H11" s="10">
+        <v>681.60211200000003</v>
+      </c>
+      <c r="I11" s="5">
+        <v>70060.710938000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.31159500000000001</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.61633400000000005</v>
+      </c>
+      <c r="E16" s="8">
+        <v>8.3601449999999993</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.33843200000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.80768499999999999</v>
+      </c>
+      <c r="I16" s="8">
+        <v>10.525662000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.1758189999999999</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.9445490000000001</v>
+      </c>
+      <c r="E17" s="9">
+        <v>18.958607000000001</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1.1274960000000001</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2.5292979999999998</v>
+      </c>
+      <c r="I17" s="9">
+        <v>22.185984000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.61726899999999996</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.8651059999999999</v>
+      </c>
+      <c r="E18" s="9">
+        <v>26.233072</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.69175200000000003</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2.254775</v>
+      </c>
+      <c r="I18" s="9">
+        <v>34.023997999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2.7711999999999999</v>
+      </c>
+      <c r="D19" s="9">
+        <v>5.1610329999999998</v>
+      </c>
+      <c r="E19" s="9">
+        <v>32.494762000000001</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2.6488320000000001</v>
+      </c>
+      <c r="H19" s="9">
+        <v>5.7083019999999998</v>
+      </c>
+      <c r="I19" s="9">
+        <v>36.152282999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.102571</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.1099060000000001</v>
+      </c>
+      <c r="E20" s="9">
+        <v>13.658575000000001</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.343248</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1.389413</v>
+      </c>
+      <c r="I20" s="9">
+        <v>15.418505</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="9">
+        <v>7.3509000000000005E-2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.402277</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.7985419999999999</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.25442399999999998</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.44187900000000002</v>
+      </c>
+      <c r="I21" s="9">
+        <v>2.0153880000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.46669100000000002</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.89484300000000006</v>
+      </c>
+      <c r="E22" s="9">
+        <v>10.997583000000001</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.65029599999999999</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1.2001869999999999</v>
+      </c>
+      <c r="I22" s="9">
+        <v>13.66225</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="10">
+        <v>66.223845999999995</v>
+      </c>
+      <c r="D23" s="10">
+        <v>83.958320999999998</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2383.5275879999999</v>
+      </c>
+      <c r="G23" s="4">
+        <v>24.217919999999999</v>
+      </c>
+      <c r="H23" s="10">
+        <v>100.32077</v>
+      </c>
+      <c r="I23" s="5">
+        <v>4421.4741210000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.32299699999999998</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.64996799999999999</v>
+      </c>
+      <c r="E28" s="8">
+        <v>8.2700720000000008</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.32486399999999999</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.67324200000000001</v>
+      </c>
+      <c r="I28" s="8">
+        <v>10.586475999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1.158128</v>
+      </c>
+      <c r="D29" s="9">
+        <v>2.01416</v>
+      </c>
+      <c r="E29" s="9">
+        <v>18.335999000000001</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.99373599999999995</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2.0632320000000002</v>
+      </c>
+      <c r="I29" s="9">
+        <v>22.429285</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0.630776</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1.8953500000000001</v>
+      </c>
+      <c r="E30" s="9">
+        <v>26.110116999999999</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.62683199999999994</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2.057547</v>
+      </c>
+      <c r="I30" s="9">
+        <v>33.084457</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2.7706019999999998</v>
+      </c>
+      <c r="D31" s="9">
+        <v>5.3153969999999999</v>
+      </c>
+      <c r="E31" s="9">
+        <v>33.165450999999997</v>
+      </c>
+      <c r="G31" s="9">
+        <v>2.3788960000000001</v>
+      </c>
+      <c r="H31" s="3">
+        <v>5.8505849999999997</v>
+      </c>
+      <c r="I31" s="9">
+        <v>36.947322999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.272984</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1.0365329999999999</v>
+      </c>
+      <c r="E32" s="9">
+        <v>13.728415999999999</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.46681600000000001</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.39446599999999998</v>
+      </c>
+      <c r="I32" s="9">
+        <v>16.88035</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6.7456000000000002E-2</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.37261899999999998</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2.677775</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.19356799999999999</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.1681</v>
+      </c>
+      <c r="I33" s="9">
+        <v>2.0479370000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0.40732299999999999</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.91342900000000005</v>
+      </c>
+      <c r="E34" s="9">
+        <v>10.999230000000001</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.53582399999999997</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.95001999999999998</v>
+      </c>
+      <c r="I34" s="9">
+        <v>13.658289</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="10">
+        <v>67.563202000000004</v>
+      </c>
+      <c r="D35" s="10">
+        <v>73.184723000000005</v>
+      </c>
+      <c r="E35" s="10">
+        <v>2379.0283199999999</v>
+      </c>
+      <c r="G35" s="4">
+        <v>22.082144</v>
+      </c>
+      <c r="H35" s="4">
+        <v>182.35794100000001</v>
+      </c>
+      <c r="I35" s="10">
+        <v>4340.2915039999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>